--- a/data/trans_camb/DCD-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,77</t>
+          <t>0,48; 2,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,87</t>
+          <t>0,54; 5,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,24</t>
+          <t>3,02; 7,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,39</t>
+          <t>1,93; 5,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 22,58</t>
+          <t>11,0; 22,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,28</t>
+          <t>1,93; 4,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,04</t>
+          <t>1,19; 2,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,53</t>
+          <t>6,07; 11,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,39</t>
+          <t>1,73; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,9</t>
+          <t>1,7; 4,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,73</t>
+          <t>2,75; 7,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,18</t>
+          <t>4,88; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,18</t>
+          <t>4,83; 9,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,85</t>
+          <t>10,81; 17,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,87</t>
+          <t>3,43; 5,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,08</t>
+          <t>3,58; 6,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,97</t>
+          <t>7,59; 12,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,31</t>
+          <t>2,86; 6,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,67</t>
+          <t>2,4; 5,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,21</t>
+          <t>5,42; 10,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,49</t>
+          <t>9,48; 14,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,46</t>
+          <t>6,73; 11,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 19,6</t>
+          <t>13,65; 19,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 9,65</t>
+          <t>6,75; 9,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,74</t>
+          <t>5,14; 7,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,24</t>
+          <t>10,55; 14,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,84</t>
+          <t>4,87; 8,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,53</t>
+          <t>4,74; 8,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 16,0</t>
+          <t>9,96; 16,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,83</t>
+          <t>11,49; 17,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,77</t>
+          <t>10,46; 15,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,91; 27,91</t>
+          <t>21,72; 27,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,4</t>
+          <t>8,89; 12,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,47</t>
+          <t>8,02; 11,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,26</t>
+          <t>16,33; 21,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,4</t>
+          <t>6,27; 11,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>9,35; 15,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,41</t>
+          <t>17,22; 23,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,37</t>
+          <t>17,53; 25,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,94</t>
+          <t>14,73; 21,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,73; 34,65</t>
+          <t>28,78; 34,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,86</t>
+          <t>12,66; 17,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,87; 17,7</t>
+          <t>12,71; 17,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,74; 28,61</t>
+          <t>23,62; 27,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,94</t>
+          <t>14,29; 20,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>11,29; 16,76</t>
+          <t>11,47; 16,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20,83; 26,0</t>
+          <t>20,78; 26,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>30,25; 37,35</t>
+          <t>30,38; 37,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,01; 26,78</t>
+          <t>20,09; 26,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,69; 43,0</t>
+          <t>26,34; 43,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>23,99; 29,07</t>
+          <t>24,08; 29,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>16,86; 21,58</t>
+          <t>17,1; 21,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>25,51; 34,84</t>
+          <t>24,55; 34,81</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,85; 7,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,86; 7,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>12,03; 14,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,14; 17,66</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,81; 14,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
+          <t>23,3; 27,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,82; 12,39</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,24; 10,71</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,79</t>
+          <t>18,62; 20,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,83</t>
+          <t>0,44; 2,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,39</t>
+          <t>2,94; 7,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,52</t>
+          <t>1,91; 5,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,24</t>
+          <t>2,05; 4,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,97</t>
+          <t>1,17; 2,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,29</t>
+          <t>1,63; 4,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,67</t>
+          <t>1,76; 4,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,16</t>
+          <t>4,81; 9,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,03</t>
+          <t>4,71; 9,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,95</t>
+          <t>3,57; 6,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,17</t>
+          <t>3,65; 6,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,13</t>
+          <t>2,96; 6,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,73</t>
+          <t>2,51; 5,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,46</t>
+          <t>9,56; 14,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,11</t>
+          <t>6,8; 11,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,9</t>
+          <t>6,64; 9,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,83</t>
+          <t>5,07; 7,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,8</t>
+          <t>4,78; 9,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,87</t>
+          <t>4,77; 8,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,49; 17,79</t>
+          <t>11,55; 17,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,46; 15,91</t>
+          <t>10,3; 15,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,48</t>
+          <t>9,12; 12,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,56</t>
+          <t>8,13; 11,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,83</t>
+          <t>6,49; 11,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,35</t>
+          <t>9,51; 16,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,53; 25,89</t>
+          <t>17,4; 25,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,73; 21,97</t>
+          <t>14,56; 21,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,66; 17,89</t>
+          <t>12,94; 17,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,71; 17,54</t>
+          <t>12,78; 17,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,96</t>
+          <t>14,05; 20,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>11,47; 16,97</t>
+          <t>11,43; 16,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>30,38; 37,2</t>
+          <t>30,34; 37,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,09; 26,27</t>
+          <t>20,05; 26,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>24,08; 29,24</t>
+          <t>24,29; 29,32</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>17,1; 21,5</t>
+          <t>17,14; 21,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,59</t>
+          <t>5,77; 7,54</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,71</t>
+          <t>5,91; 7,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,66</t>
+          <t>15,02; 17,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,22</t>
+          <t>11,92; 14,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,82; 12,39</t>
+          <t>10,76; 12,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,71</t>
+          <t>9,24; 10,68</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">

--- a/data/trans_camb/DCD-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,82</t>
+          <t>0,43; 2,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,31</t>
+          <t>0,0; 4,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,31</t>
+          <t>3,0; 7,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,35</t>
+          <t>2,15; 5,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 22,07</t>
+          <t>10,78; 22,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,42</t>
+          <t>2,03; 4,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,94</t>
+          <t>1,1; 3,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,9</t>
+          <t>6,15; 12,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,26</t>
+          <t>1,73; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,76</t>
+          <t>1,73; 4,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,7</t>
+          <t>2,58; 7,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,08</t>
+          <t>4,91; 9,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,03</t>
+          <t>4,8; 9,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 17,85</t>
+          <t>10,68; 17,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,07</t>
+          <t>3,49; 5,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,15</t>
+          <t>3,58; 6,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,29</t>
+          <t>7,56; 11,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,17</t>
+          <t>2,84; 6,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,82</t>
+          <t>2,48; 5,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,33</t>
+          <t>5,36; 10,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,42</t>
+          <t>9,27; 14,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,36</t>
+          <t>6,9; 11,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,65; 19,34</t>
+          <t>13,74; 19,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,71</t>
+          <t>6,7; 9,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,81</t>
+          <t>5,19; 7,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 14,15</t>
+          <t>10,48; 14,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,08</t>
+          <t>4,7; 8,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,69</t>
+          <t>4,71; 8,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,96; 16,12</t>
+          <t>9,93; 16,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,64</t>
+          <t>11,76; 17,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,94</t>
+          <t>10,52; 15,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,79</t>
+          <t>21,91; 27,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,71</t>
+          <t>8,89; 12,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,43</t>
+          <t>8,11; 11,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,12</t>
+          <t>16,62; 21,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,84</t>
+          <t>6,23; 11,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,51; 16,06</t>
+          <t>9,15; 15,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,22; 23,53</t>
+          <t>17,09; 23,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,4; 25,7</t>
+          <t>17,6; 25,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,56; 21,75</t>
+          <t>14,71; 21,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,69</t>
+          <t>28,73; 34,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,94; 17,71</t>
+          <t>12,96; 17,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,78; 17,5</t>
+          <t>12,87; 17,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,62; 27,98</t>
+          <t>23,74; 28,61</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>14,05; 20,82</t>
+          <t>14,22; 20,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,65</t>
+          <t>11,29; 16,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20,78; 26,12</t>
+          <t>20,83; 26,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>30,34; 37,01</t>
+          <t>30,25; 37,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,05; 26,6</t>
+          <t>20,01; 26,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>26,34; 43,09</t>
+          <t>27,69; 43,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>24,29; 29,32</t>
+          <t>23,99; 29,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>17,14; 21,77</t>
+          <t>16,86; 21,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>24,55; 34,81</t>
+          <t>25,51; 34,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,54</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,69</t>
+          <t>5,94; 7,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>12,03; 14,44</t>
+          <t>12,13; 14,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,02; 17,63</t>
+          <t>15,09; 17,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,36</t>
+          <t>11,92; 14,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>23,3; 27,34</t>
+          <t>23,39; 27,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,76; 12,36</t>
+          <t>10,85; 12,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,68</t>
+          <t>9,25; 10,71</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,89</t>
+          <t>18,57; 20,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,14 +587,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,59</t>
+          <t>5,1</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,77</t>
+          <t>-2,03; 0,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>-1,32; 3,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,87</t>
+          <t>-4,23; 1,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,24</t>
+          <t>5,91; 18,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,39</t>
+          <t>-2,67; 0,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 22,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 4,28</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 3,04</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 12,53</t>
+          <t>2,41; 8,85</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-60,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>48,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-28,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>233,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-35,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>172,03%</t>
         </is>
       </c>
     </row>
@@ -791,54 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 211,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 571,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,67; 48,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,1; 506,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,57; 15,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>60,87; 365,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,97</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,78</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,67</t>
+          <t>4,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,39</t>
+          <t>-1,62; 2,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,9</t>
+          <t>-0,4; 5,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,73</t>
+          <t>-3,06; 2,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,18</t>
+          <t>0,79; 10,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,18</t>
+          <t>-1,58; 1,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,85</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>3,49; 5,87</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 6,08</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 11,97</t>
+          <t>1,98; 7,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>75,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>85,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>95,3%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,69; 124,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,01; 238,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,78; 55,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,37; 180,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,06; 48,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>37,56; 184,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,09</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12,25</t>
+          <t>3,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,31</t>
+          <t>-2,78; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,67</t>
+          <t>0,58; 6,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,21</t>
+          <t>-6,11; 0,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,49</t>
+          <t>-0,56; 8,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,46</t>
+          <t>-3,83; 0,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 19,6</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 9,65</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,19; 7,74</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>10,48; 14,24</t>
+          <t>1,46; 6,6</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>79,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-24,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-21,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>48,78%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,67; 59,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,2; 211,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,07; 7,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 78,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,11; 2,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>15,37; 91,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,88</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,55</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>10,55</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>18,92</t>
+          <t>5,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,84</t>
+          <t>-3,02; 2,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,53</t>
+          <t>-3,47; 8,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 16,0</t>
+          <t>-5,51; 2,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,83</t>
+          <t>4,5; 13,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,77</t>
+          <t>-3,24; 1,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,91; 27,91</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>8,89; 12,4</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 11,47</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>16,62; 21,26</t>
+          <t>-1,35; 9,64</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-8,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>53,32%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,21; 55,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,84; 143,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 20,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,27; 109,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,58; 20,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,63; 99,81</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,12</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,39</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,86</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>31,72</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>15,17</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>15,07</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>25,91</t>
+          <t>10,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,4</t>
+          <t>-0,81; 7,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>7,58; 16,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,41</t>
+          <t>-8,57; 2,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,37</t>
+          <t>5,75; 15,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,94</t>
+          <t>-3,61; 3,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,73; 34,65</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>12,96; 17,86</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 17,7</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>23,74; 28,61</t>
+          <t>7,26; 14,02</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>132,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-16,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>48,39%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>70,78%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,1; 110,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,25; 244,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,25; 11,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,73; 83,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,9; 26,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>40,71; 104,82</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>17,32</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>23,43</t>
+          <t>-10,94</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>33,62</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>23,17</t>
+          <t>-8,39</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>37,66</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>26,62</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>19,21</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>31,9</t>
+          <t>-1,55</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,94</t>
+          <t>-11,24; -0,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>11,29; 16,76</t>
+          <t>-2,85; 8,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20,83; 26,0</t>
+          <t>-16,75; -4,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>30,25; 37,35</t>
+          <t>-24,27; 5,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,01; 26,78</t>
+          <t>-12,9; -4,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,69; 43,0</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>23,99; 29,07</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>16,86; 21,58</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>25,51; 34,84</t>
+          <t>-13,85; 5,29</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-36,23%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-38,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-22,49%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-38,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-7,03%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,53; -1,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,61; 74,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,09; -18,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,28; 20,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,73; -21,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-57,87; 25,24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>-9,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>16,31</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>25,72</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>11,57</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>19,86</t>
+          <t>10,94</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>-7,9; 5,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>2,33; 16,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>-17,22; -2,91</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>5,93; 18,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>-11,29; -0,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 12,47</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 10,71</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>18,57; 20,79</t>
+          <t>6,6; 15,71</t>
         </is>
       </c>
     </row>
@@ -2034,47 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-25,41%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,55%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>34,89%</t>
         </is>
       </c>
     </row>
@@ -2087,65 +1651,207 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,7; 36,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,62; 102,65</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,66; -8,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,79; 54,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,39; -2,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>19,03; 55,41</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-3,26</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>7,94</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 1,34</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 7,34</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; -1,62</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 10,56</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; -0,6</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 8,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>83,99%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-19,98%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>48,67%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-14,02%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>59,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-14,89; 21,61</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>44,36; 122,43</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; -10,35</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>23,77; 67,51</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-22,21; -5,48</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>37,47; 76,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/DCD-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,41</t>
+          <t>-2,17; 0,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,42</t>
+          <t>-1,13; 3,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,22</t>
+          <t>-4,01; 1,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 18,31</t>
+          <t>6,0; 18,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,31</t>
+          <t>-2,42; 0,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 8,85</t>
+          <t>2,05; 8,16</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 211,42</t>
+          <t>-100,0; 187,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 571,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,67; 48,2</t>
+          <t>-64,48; 45,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,1; 506,86</t>
+          <t>88,17; 525,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,57; 15,69</t>
+          <t>-64,61; 29,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,87; 365,07</t>
+          <t>50,47; 340,25</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,38</t>
+          <t>-1,71; 2,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,27</t>
+          <t>-0,22; 5,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,9</t>
+          <t>-2,83; 2,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 10,25</t>
+          <t>-0,38; 9,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,8</t>
+          <t>-1,62; 1,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,24</t>
+          <t>1,46; 7,06</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 124,77</t>
+          <t>-48,67; 136,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 238,54</t>
+          <t>-11,48; 295,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 55,82</t>
+          <t>-34,16; 59,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 180,37</t>
+          <t>-1,32; 173,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 48,04</t>
+          <t>-32,32; 51,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,56; 184,38</t>
+          <t>29,54; 184,77</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,93</t>
+          <t>-2,66; 1,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,61</t>
+          <t>0,63; 6,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 0,78</t>
+          <t>-6,18; 0,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 8,25</t>
+          <t>-0,36; 7,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,17</t>
+          <t>-3,87; 0,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,6</t>
+          <t>1,34; 6,37</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 59,73</t>
+          <t>-48,88; 59,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,2; 211,52</t>
+          <t>9,4; 206,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 7,74</t>
+          <t>-44,85; 4,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 78,51</t>
+          <t>-0,56; 79,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 2,69</t>
+          <t>-42,21; 3,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,37; 91,41</t>
+          <t>14,4; 90,57</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,81</t>
+          <t>-3,32; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 8,46</t>
+          <t>-3,23; 8,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,58</t>
+          <t>-5,72; 2,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,54</t>
+          <t>4,24; 13,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,91</t>
+          <t>-3,52; 1,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 9,64</t>
+          <t>-1,13; 9,4</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 55,43</t>
+          <t>-41,48; 47,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 143,35</t>
+          <t>-38,9; 145,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 20,98</t>
+          <t>-34,91; 19,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27,27; 109,95</t>
+          <t>25,58; 111,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 20,94</t>
+          <t>-28,93; 18,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 99,81</t>
+          <t>-10,11; 94,35</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,88</t>
+          <t>-0,39; 7,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,58; 16,12</t>
+          <t>7,25; 15,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 2,03</t>
+          <t>-8,54; 2,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,41</t>
+          <t>4,87; 15,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,52</t>
+          <t>-3,49; 3,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,26; 14,02</t>
+          <t>7,16; 13,72</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 110,92</t>
+          <t>-4,63; 119,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>69,25; 244,05</t>
+          <t>64,86; 244,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 11,0</t>
+          <t>-35,74; 12,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>21,73; 83,71</t>
+          <t>19,92; 83,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 26,09</t>
+          <t>-20,62; 25,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>40,71; 104,82</t>
+          <t>40,94; 104,31</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,24; -0,27</t>
+          <t>-11,23; 0,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 8,52</t>
+          <t>-2,35; 7,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -4,62</t>
+          <t>-17,29; -4,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 5,6</t>
+          <t>-22,39; 6,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,9; -4,49</t>
+          <t>-12,87; -4,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 5,29</t>
+          <t>-12,75; 5,29</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-61,53; -1,85</t>
+          <t>-59,02; 3,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 74,63</t>
+          <t>-12,91; 64,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,09; -18,31</t>
+          <t>-54,18; -17,6</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-74,28; 20,82</t>
+          <t>-69,91; 24,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-51,73; -21,92</t>
+          <t>-52,7; -22,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 25,24</t>
+          <t>-49,65; 25,27</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 5,9</t>
+          <t>-7,31; 6,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,33; 16,1</t>
+          <t>3,16; 16,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-17,22; -2,91</t>
+          <t>-16,26; -1,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,93; 18,34</t>
+          <t>5,76; 18,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -0,59</t>
+          <t>-11,68; -1,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,6; 15,71</t>
+          <t>5,87; 15,55</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 36,19</t>
+          <t>-31,56; 40,74</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>8,62; 102,65</t>
+          <t>13,46; 98,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-40,66; -8,13</t>
+          <t>-39,03; -5,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>13,79; 54,43</t>
+          <t>13,34; 52,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-33,39; -2,05</t>
+          <t>-34,01; -4,25</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>19,03; 55,41</t>
+          <t>16,54; 54,43</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,34</t>
+          <t>-1,21; 1,27</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,34</t>
+          <t>2,77; 7,39</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -1,62</t>
+          <t>-5,2; -1,64</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,56</t>
+          <t>3,35; 10,33</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,6</t>
+          <t>-2,65; -0,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,55</t>
+          <t>4,63; 8,52</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 21,61</t>
+          <t>-16,8; 21,11</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>44,36; 122,43</t>
+          <t>43,17; 120,6</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,02; -10,35</t>
+          <t>-29,28; -10,49</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>23,77; 67,51</t>
+          <t>20,95; 66,58</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -5,48</t>
+          <t>-22,3; -5,09</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>37,47; 76,9</t>
+          <t>39,12; 76,38</t>
         </is>
       </c>
     </row>
